--- a/TestData/TestData_Module1.xlsx
+++ b/TestData/TestData_Module1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A96A1C-4348-4F4A-9CF5-8A85A3FB026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1C7874-660D-42AC-940B-A52AE8F58BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC TC001_SearchInJioMart" sheetId="1" r:id="rId1"/>
+    <sheet name="TC001_TestCase_001" sheetId="1" r:id="rId1"/>
     <sheet name="TC_TC002_DoSomething" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>KEY</t>
   </si>
@@ -422,94 +422,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
